--- a/_includes/course-schedule.xlsx
+++ b/_includes/course-schedule.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">Last day to drop a class without a grade </t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>P266.pdf</t>
+  </si>
+  <si>
+    <t>Rahel, F. J. 2016. Changing Philosophies of Fisheries Management as Illustrated by the History of Fishing Regulations in Wyoming. Fisheries 41:38-48.</t>
+  </si>
+  <si>
+    <t>R189.pdf</t>
+  </si>
+  <si>
+    <t>Whelan, G. 2004. A historical perspective on the use of propogated fish in fisheries management: Michigan's 130-year experience. American Fisheries Society Symposium 44:307-315.</t>
+  </si>
+  <si>
+    <t>W205.pdf</t>
   </si>
 </sst>
 </file>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D11" si="0">CONCATENATE(B2," [pdf](pdfs/",C2,")")</f>
+        <f t="shared" ref="D2:D13" si="0">CONCATENATE(B2," [pdf](pdfs/",C2,")")</f>
         <v>Bennett, D. H., E. L. Hampton, and R. T. Lackey. 1978. Current and future fisheries management goals: Implications for future management. Fisheries 3:10-14. [pdf](pdfs/B269.pdf)</v>
       </c>
     </row>
@@ -730,7 +742,7 @@
         <v>Nielsen, L. A. 1995. The practical uses of fisheries history. Fisheries 20:16-18. [pdf](pdfs/N51.pdf)</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -760,7 +772,7 @@
         <v>Pauly, D. 2001. Fisheries Management. John Wiley &amp; Sons, Ltd. [pdf](pdfs/P178.pdf)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -801,6 +813,36 @@
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Pascoe, S., K. Brooks, T. Cannard, C. M. Dichmont, E. Jebreen, J. Schirmer, and L. Triantafillos. 2014. Social objectives of fisheries management: What are managers' priorities? Ocean and Coastal Management 98:1-10. [pdf](pdfs/P266.pdf)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rahel, F. J. 2016. Changing Philosophies of Fisheries Management as Illustrated by the History of Fishing Regulations in Wyoming. Fisheries 41:38-48. [pdf](pdfs/R189.pdf)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Whelan, G. 2004. A historical perspective on the use of propogated fish in fisheries management: Michigan's 130-year experience. American Fisheries Society Symposium 44:307-315. [pdf](pdfs/W205.pdf)</v>
       </c>
     </row>
   </sheetData>

--- a/_includes/course-schedule.xlsx
+++ b/_includes/course-schedule.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA0675-BC76-4E56-B6C2-7B1649E7A051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="important-dates" sheetId="4" r:id="rId1"/>
     <sheet name="literature" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t xml:space="preserve">Last day to drop a class without a grade </t>
   </si>
@@ -167,12 +175,21 @@
   </si>
   <si>
     <t>W205.pdf</t>
+  </si>
+  <si>
+    <t>Knight, W. 1968. Asymptotic Growth: An Example of Nonsense Disguised as Mathematics. Journal of the Fisheries Research Board of Canada 25:1303-1307.</t>
+  </si>
+  <si>
+    <t>K168.pdf</t>
+  </si>
+  <si>
+    <t>4. Other interesting topics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,6 +258,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -288,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +341,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,15 +694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
   </cols>
@@ -678,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D13" si="0">CONCATENATE(B2," [pdf](pdfs/",C2,")")</f>
+        <f t="shared" ref="D2:D14" si="0">CONCATENATE(B2," [pdf](pdfs/",C2,")")</f>
         <v>Bennett, D. H., E. L. Hampton, and R. T. Lackey. 1978. Current and future fisheries management goals: Implications for future management. Fisheries 3:10-14. [pdf](pdfs/B269.pdf)</v>
       </c>
     </row>
@@ -843,6 +898,21 @@
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Whelan, G. 2004. A historical perspective on the use of propogated fish in fisheries management: Michigan's 130-year experience. American Fisheries Society Symposium 44:307-315. [pdf](pdfs/W205.pdf)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Knight, W. 1968. Asymptotic Growth: An Example of Nonsense Disguised as Mathematics. Journal of the Fisheries Research Board of Canada 25:1303-1307. [pdf](pdfs/K168.pdf)</v>
       </c>
     </row>
   </sheetData>
